--- a/Jogos_do_Dia/2023-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AH57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,331 +612,331 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Ecuador Primera Categoría Serie B</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45019.89583333334</v>
+        <v>45019.875</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Central Córdoba SdE</t>
+          <t>Imbabura SC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Arsenal de Sarandí</t>
+          <t>Manta FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="G2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.7</v>
-      </c>
       <c r="I2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J2" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>1.39</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.29</v>
-      </c>
       <c r="Y2" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45019.92361111111</v>
+        <v>45019.89583333334</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Central Córdoba SdE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alianza Petrolera</t>
+          <t>Arsenal de Sarandí</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>6.75</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="J3" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="L3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N3" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="O3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="T3" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1.86</v>
+        <v>1.29</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.28</v>
+        <v>1.81</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.25</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.65</v>
+        <v>2.43</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.23</v>
+        <v>1.82</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thailand Thai League T1</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45020.33333333334</v>
+        <v>45019.92361111111</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chiangrai United</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port FC</t>
+          <t>Alianza Petrolera</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.5</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Y4" t="n">
         <v>1.02</v>
       </c>
-      <c r="J4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="Z4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1.28</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.92</v>
+        <v>2.23</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.39</v>
+        <v>2.98</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -953,97 +953,97 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Chiangrai United</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chonburi</t>
+          <t>Port FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="I5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J5" t="n">
-        <v>13.5</v>
+        <v>12.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="L5" t="n">
-        <v>3.72</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="T5" t="n">
         <v>1.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>2.08</v>
       </c>
       <c r="W5" t="n">
         <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1056,104 +1056,104 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45020.35416666666</v>
+        <v>45020.33333333334</v>
       </c>
       <c r="C6" t="n">
         <v>25</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Muang Thong United</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Chonburi</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="J6" t="n">
-        <v>9.9</v>
+        <v>13.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="L6" t="n">
-        <v>3.84</v>
+        <v>3.72</v>
       </c>
       <c r="M6" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.33</v>
       </c>
-      <c r="P6" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.9</v>
-      </c>
       <c r="W6" t="n">
-        <v>0.83</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.39</v>
+        <v>2.36</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1162,108 +1162,108 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Greece Super League 2</t>
+          <t>Thailand Thai League T1</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45020.36458333334</v>
+        <v>45020.35416666666</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thesprotos</t>
+          <t>Muang Thong United</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Makedonikos Neapolis FC</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.63</v>
+        <v>1.9</v>
       </c>
       <c r="W7" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="X7" t="n">
-        <v>1.1</v>
+        <v>1.66</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.08</v>
+        <v>2.83</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1283,22 +1283,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Almopos</t>
+          <t>Thesprotos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Panathinaikos II</t>
+          <t>Makedonikos Neapolis FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1340,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="W8" t="n">
-        <v>1.63</v>
+        <v>0.75</v>
       </c>
       <c r="X8" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.27</v>
+        <v>0.98</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.43</v>
+        <v>2.08</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1382,108 +1382,108 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thailand Thai League T1</t>
+          <t>Greece Super League 2</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45020.375</v>
+        <v>45020.36458333334</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bangkok United</t>
+          <t>Almopos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Buriram United</t>
+          <t>Panathinaikos II</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.86</v>
+        <v>2.44</v>
       </c>
       <c r="N9" t="n">
-        <v>1.83</v>
+        <v>1.49</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2.33</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.67</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
-        <v>1.89</v>
+        <v>1.16</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.82</v>
+        <v>1.27</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.71</v>
+        <v>2.43</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1492,197 +1492,197 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Czech Republic FNL</t>
+          <t>Thailand Thai League T1</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45020.47916666666</v>
+        <v>45020.375</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Bangkok United</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dukla Praha</t>
+          <t>Buriram United</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.16</v>
+        <v>2.75</v>
       </c>
       <c r="G10" t="n">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="I10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.29</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.18</v>
       </c>
       <c r="M10" t="n">
         <v>1.8</v>
       </c>
       <c r="N10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG10" t="n">
         <v>2</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lithuania A Lyga</t>
+          <t>Czech Republic FNL</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45020.5</v>
+        <v>45020.47916666666</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Dukla Praha</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>0.78</v>
       </c>
       <c r="X11" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.83</v>
+        <v>3.51</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1723,76 +1723,76 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FA Šiauliai</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V12" t="n">
         <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.48</v>
+        <v>3.83</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1822,87 +1822,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Lithuania A Lyga</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45020.54166666666</v>
+        <v>45020.5</v>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>FA Šiauliai</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>1.45</v>
+        <v>2.18</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.84</v>
+        <v>1.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.29</v>
+        <v>3.48</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1932,33 +1932,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Germany DFB Pokal</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
         <v>45020.54166666666</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N14" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2000,28 +2000,28 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>0.36</v>
       </c>
       <c r="X14" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.01</v>
+        <v>0.84</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.2</v>
+        <v>2.29</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -2042,111 +2042,111 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Israel Israeli Premier League</t>
+          <t>Germany DFB Pokal</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45020.57291666666</v>
+        <v>45020.54166666666</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V15" t="n">
         <v>3</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Maccabi Netanya</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Hapoel Katamon</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.39</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.21</v>
+        <v>3.01</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.12</v>
+        <v>4.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -2156,83 +2156,83 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45020.58333333334</v>
+        <v>45020.57291666666</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hapoel Be'er Sheva</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ashdod</t>
+          <t>Hapoel Katamon</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>2.18</v>
+        <v>1.39</v>
       </c>
       <c r="W16" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="X16" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.38</v>
+        <v>3.12</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.65</v>
+        <v>4.75</v>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2303,10 +2303,10 @@
         <v>4.35</v>
       </c>
       <c r="M17" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="N17" t="n">
-        <v>2.26</v>
+        <v>2.41</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.72</v>
       </c>
       <c r="I18" t="n">
         <v>1.04</v>
@@ -2416,7 +2416,7 @@
         <v>1.85</v>
       </c>
       <c r="N18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2482,87 +2482,87 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>South Africa Premier Soccer League</t>
+          <t>Israel Israeli Premier League</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45020.60416666666</v>
+        <v>45020.58333333334</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Hapoel Be'er Sheva</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Ashdod</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
         <v>1.05</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="N19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.65</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
       <c r="V19" t="n">
-        <v>2.75</v>
+        <v>2.18</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="X19" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.02</v>
+        <v>3.38</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -2592,108 +2592,108 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Israel Israeli Premier League</t>
+          <t>South Africa Premier Soccer League</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>45020.60416666666</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cape Town City</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L20" t="n">
         <v>3</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Maccabi Tel Aviv</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Maccabi Haifa</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
       <c r="W20" t="n">
-        <v>2.43</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>2.36</v>
+        <v>1.66</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.99</v>
+        <v>1.36</v>
       </c>
       <c r="Z20" t="n">
-        <v>4.35</v>
+        <v>3.02</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -2702,87 +2702,87 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scotland Championship</t>
+          <t>Israel Israeli Premier League</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45020.65625</v>
+        <v>45020.60416666666</v>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Raith Rovers</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hamilton Academical</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.79</v>
+        <v>2.45</v>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="N21" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
         <v>2.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>1.73</v>
+        <v>2.07</v>
       </c>
       <c r="W21" t="n">
-        <v>0.86</v>
+        <v>2.43</v>
       </c>
       <c r="X21" t="n">
-        <v>1.46</v>
+        <v>2.36</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.08</v>
+        <v>1.99</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.54</v>
+        <v>4.35</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -2812,221 +2812,221 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scotland League Two</t>
+          <t>Scotland Championship</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>45020.65625</v>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Stirling Albion</t>
+          <t>Raith Rovers</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Hamilton Academical</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="G22" t="n">
-        <v>3.73</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>4.72</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="L22" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="N22" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.22</v>
       </c>
-      <c r="T22" t="n">
-        <v>1.25</v>
-      </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>2.36</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
         <v>1.29</v>
       </c>
-      <c r="X22" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>1.8</v>
       </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Scotland League Two</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
         <v>45020.65625</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Stirling Albion</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
       </c>
       <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.62</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AE23" t="n">
         <v>1.8</v>
       </c>
-      <c r="S23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AF23" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.14</v>
+        <v>3.35</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.73</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="24">
@@ -3043,100 +3043,100 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.47</v>
+        <v>6.1</v>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
-        <v>2.85</v>
+        <v>1.62</v>
       </c>
       <c r="I24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="K24" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="L24" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="T24" t="n">
         <v>1.3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="V24" t="n">
-        <v>0.92</v>
+        <v>1.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="X24" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.72</v>
+        <v>3.95</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.62</v>
+        <v>1.38</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AG24" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AH24" t="n">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="25">
@@ -3153,317 +3153,317 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>2.85</v>
       </c>
       <c r="I25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J25" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="L25" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="M25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N25" t="n">
         <v>1.92</v>
       </c>
-      <c r="N25" t="n">
-        <v>1.89</v>
-      </c>
       <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.29</v>
       </c>
-      <c r="P25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="X25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF25" t="n">
         <v>1.57</v>
       </c>
-      <c r="R25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AG25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>England National League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
         <v>45020.65625</v>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Yeovil Town</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K26" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="L26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
         <v>3.5</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.8</v>
-      </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S26" t="n">
         <v>1.22</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="X26" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="Y26" t="n">
         <v>1.12</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Germany DFB Pokal</t>
+          <t>England National League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
         <v>45020.65625</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bayern München</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Yeovil Town</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="H27" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="N27" t="n">
-        <v>2.75</v>
+        <v>1.88</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.12</v>
+        <v>1.12</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.12</v>
+        <v>2.96</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AB27" t="n">
         <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.5</v>
+        <v>3.48</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF27" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -3472,96 +3472,96 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spain Copa del Rey</t>
+          <t>Germany DFB Pokal</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45020.66666666666</v>
+        <v>45020.65625</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="G28" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="J28" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="K28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7</v>
+      </c>
+      <c r="M28" t="n">
         <v>1.4</v>
       </c>
-      <c r="L28" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2.3</v>
-      </c>
       <c r="N28" t="n">
-        <v>1.63</v>
+        <v>2.75</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="T28" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="U28" t="n">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.57</v>
+        <v>2.12</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.54</v>
+        <v>2.12</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AB28" t="n">
         <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AD28" t="n">
         <v>1.3</v>
@@ -3570,13 +3570,13 @@
         <v>1.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AH28" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="29">
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.92</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="I29" t="n">
         <v>1.08</v>
@@ -3623,10 +3623,10 @@
         <v>2.9</v>
       </c>
       <c r="M29" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="N29" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -3692,197 +3692,197 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Spain Copa del Rey</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V30" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="W30" t="n">
-        <v>1.2</v>
+        <v>2.67</v>
       </c>
       <c r="X30" t="n">
-        <v>1.69</v>
+        <v>2.97</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.25</v>
+        <v>2.57</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.94</v>
+        <v>5.54</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="V31" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="W31" t="n">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="X31" t="n">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -3912,243 +3912,243 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V32" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="W32" t="n">
-        <v>2.11</v>
+        <v>0.86</v>
       </c>
       <c r="X32" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="Z32" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.7</v>
+        <v>1.33</v>
       </c>
       <c r="I33" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="K33" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="L33" t="n">
-        <v>3.72</v>
+        <v>4.55</v>
       </c>
       <c r="M33" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="N33" t="n">
-        <v>2.01</v>
+        <v>2.32</v>
       </c>
       <c r="O33" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="S33" t="n">
-        <v>1.49</v>
+        <v>3.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="U33" t="n">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="V33" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>0.86</v>
+        <v>2.11</v>
       </c>
       <c r="X33" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Al Adalh</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4200,19 +4200,19 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.1</v>
+        <v>1.89</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="X34" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4242,87 +4242,87 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45020.67708333334</v>
+        <v>45020.66666666666</v>
       </c>
       <c r="C35" t="n">
         <v>22</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Al Adalh</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V35" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="W35" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="Z35" t="n">
-        <v>3.29</v>
+        <v>2.54</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -4359,44 +4359,44 @@
         <v>45020.67708333334</v>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="G36" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
-        <v>2.81</v>
+        <v>2.65</v>
       </c>
       <c r="I36" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="L36" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="M36" t="n">
         <v>2.55</v>
       </c>
       <c r="N36" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O36" t="n">
         <v>1.61</v>
@@ -4405,34 +4405,34 @@
         <v>2.21</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R36" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.3</v>
       </c>
-      <c r="T36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.82</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="X36" t="n">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.11</v>
+        <v>1.69</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.33</v>
+        <v>3.29</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4473,320 +4473,320 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="G37" t="n">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="H37" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="I37" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="J37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="L37" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="M37" t="n">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="N37" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="O37" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="P37" t="n">
-        <v>2.43</v>
+        <v>2.21</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="S37" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U37" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V37" t="n">
-        <v>1.2</v>
+        <v>0.82</v>
       </c>
       <c r="W37" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="X37" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazil Pernambucano 1</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45020.6875</v>
+        <v>45020.67708333334</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Petrolina Social Futebol Clube</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V38" t="n">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="W38" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="X38" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.58</v>
+        <v>1.14</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>Brazil Pernambucano 1</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45020.79166666666</v>
+        <v>45020.6875</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Petrolina Social Futebol Clube</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Alianza Lima</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Atlético PR</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.08</v>
-      </c>
       <c r="J39" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="K39" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="L39" t="n">
-        <v>3.02</v>
+        <v>3.74</v>
       </c>
       <c r="M39" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N39" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>2.5</v>
+        <v>3.04</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="S39" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="T39" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="U39" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4803,61 +4803,61 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Atlético PR</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="I40" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="K40" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N40" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="P40" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.8</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S40" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="T40" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U40" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4875,28 +4875,28 @@
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AB40" t="n">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="41">
@@ -4913,61 +4913,61 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CSD Independiente del Valle</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="G41" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="I41" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K41" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="L41" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O41" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="R41" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="S41" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="T41" t="n">
         <v>1.3</v>
       </c>
       <c r="U41" t="n">
-        <v>1.93</v>
+        <v>1.3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4985,34 +4985,34 @@
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>2.96</v>
+        <v>1.91</v>
       </c>
       <c r="AD41" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AF41" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AG41" t="n">
-        <v>2.63</v>
+        <v>2.21</v>
       </c>
       <c r="AH41" t="n">
-        <v>3.84</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>South America Copa Sudamericana</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -5023,100 +5023,100 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>CSD Independiente del Valle</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>4.2</v>
+        <v>4.34</v>
       </c>
       <c r="I42" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="J42" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="K42" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="L42" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="M42" t="n">
         <v>2.3</v>
       </c>
       <c r="N42" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O42" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P42" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U42" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="AB42" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="AC42" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF42" t="n">
         <v>2.1</v>
       </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AG42" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="43">
@@ -5133,171 +5133,171 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Newell's Old Boys</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.55</v>
+        <v>2.07</v>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3.82</v>
       </c>
       <c r="I43" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="J43" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="K43" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="L43" t="n">
         <v>2.7</v>
       </c>
       <c r="M43" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N43" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O43" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P43" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="n">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="T43" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U43" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>3</v>
       </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
       <c r="X43" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.63</v>
+        <v>1.14</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AB43" t="n">
         <v>8</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie A</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
         <v>45020.79166666666</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mushuc Runa SC</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Newell's Old Boys</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V44" t="n">
         <v>3</v>
@@ -5306,37 +5306,37 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.6</v>
+        <v>1.63</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="45">
@@ -5353,12 +5353,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CSD Independiente del Valle</t>
+          <t>Mushuc Runa SC</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Delfin SC</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5416,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.77</v>
+        <v>1.08</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -5463,12 +5463,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Gualaceo SC</t>
+          <t>CSD Independiente del Valle</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Técnico Universitario</t>
+          <t>Delfin SC</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -5526,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.31</v>
+        <v>0.77</v>
       </c>
       <c r="Z46" t="n">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -5573,12 +5573,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Gualaceo SC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cumbayá</t>
+          <t>Técnico Universitario</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -5633,16 +5633,16 @@
         <v>3</v>
       </c>
       <c r="W47" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.1</v>
+        <v>2.81</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
@@ -5683,12 +5683,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CD El Nacional</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CD Universidad Católica</t>
+          <t>Cumbayá</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -5740,19 +5740,19 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X48" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="Z48" t="n">
-        <v>3.24</v>
+        <v>2.36</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -5793,12 +5793,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Guayaquil City FC</t>
+          <t>CD El Nacional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>CD Universidad Católica</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -5850,19 +5850,19 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W49" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="Z49" t="n">
-        <v>3.14</v>
+        <v>3.24</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -5903,12 +5903,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SD Aucas</t>
+          <t>Guayaquil City FC</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CS Emelec</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5960,19 +5960,19 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
+        <v>2</v>
+      </c>
+      <c r="W50" t="n">
         <v>1.5</v>
       </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
       <c r="X50" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.99</v>
+        <v>1.66</v>
       </c>
       <c r="Z50" t="n">
-        <v>2.58</v>
+        <v>3.14</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -6013,12 +6013,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Orense SC</t>
+          <t>SD Aucas</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>CS Emelec</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -6070,19 +6070,19 @@
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.91</v>
+        <v>1.59</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.82</v>
+        <v>2.58</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
@@ -6112,33 +6112,33 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Ecuador Primera Categoría Serie A</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45020.83333333334</v>
+        <v>45020.79166666666</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Orense SC</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Nacional Potosí</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -6153,55 +6153,55 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
         <v>3</v>
       </c>
-      <c r="Q52" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0.5</v>
-      </c>
       <c r="W52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -6222,328 +6222,328 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>South America Copa Sudamericana</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45020.875</v>
+        <v>45020.83333333334</v>
       </c>
       <c r="C53" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W53" t="n">
         <v>1</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>César Vallejo</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>LDU Quito</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V53" t="n">
-        <v>3</v>
-      </c>
-      <c r="W53" t="n">
-        <v>3</v>
-      </c>
       <c r="X53" t="n">
-        <v>1.86</v>
+        <v>0.93</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="AA53" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC53" t="n">
         <v>1.95</v>
       </c>
       <c r="AD53" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AH53" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie B</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
         <v>45020.875</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Imbabura SC</t>
+          <t>César Vallejo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="F54" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H54" t="n">
         <v>2.4</v>
       </c>
-      <c r="G54" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2.88</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M54" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
         <v>1.5</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X54" t="n">
-        <v>1.39</v>
+        <v>1.86</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.54</v>
+        <v>1.86</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>South America Copa Sudamericana</t>
+          <t>Ecuador Primera Categoría Serie B</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
         <v>45020.875</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Estudiantes Mérida</t>
+          <t>9 de Octubre</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>América de Quito</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3</v>
+      </c>
+      <c r="W55" t="n">
         <v>1.5</v>
       </c>
-      <c r="P55" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
       <c r="X55" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.45</v>
+        <v>3.06</v>
       </c>
       <c r="AA55" t="n">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="n">
         <v>0</v>
@@ -6552,7 +6552,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -6563,99 +6563,209 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Independiente Medellín</t>
+          <t>Estudiantes Mérida</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.55</v>
+        <v>5.9</v>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="H56" t="n">
-        <v>2.75</v>
+        <v>1.61</v>
       </c>
       <c r="I56" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="J56" t="n">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="K56" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="L56" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="M56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N56" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O56" t="n">
         <v>1.5</v>
       </c>
       <c r="P56" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R56" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="T56" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="U56" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AA56" t="n">
-        <v>2.07</v>
+        <v>3.46</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="AD56" t="n">
         <v>1.26</v>
       </c>
       <c r="AE56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45020.875</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J57" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE57" t="n">
         <v>1.49</v>
       </c>
-      <c r="AF56" t="n">
+      <c r="AF57" t="n">
         <v>1.87</v>
       </c>
-      <c r="AG56" t="n">
+      <c r="AG57" t="n">
         <v>2.41</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AH57" t="n">
         <v>3.2</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
         <v>1.47</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X3" t="n">
         <v>1.29</v>
@@ -900,10 +900,10 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="X4" t="n">
         <v>1.86</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.45</v>
+        <v>2.79</v>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.65</v>
+        <v>2.21</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -983,10 +983,10 @@
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="N5" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1025,7 +1025,7 @@
         <v>2.63</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AB5" t="n">
         <v>8</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="I6" t="n">
         <v>1.03</v>
@@ -1093,10 +1093,10 @@
         <v>3.72</v>
       </c>
       <c r="M6" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="N6" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE6" t="n">
         <v>1.54</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
         <v>1.01</v>
@@ -1203,10 +1203,10 @@
         <v>3.84</v>
       </c>
       <c r="M7" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1266,7 +1266,7 @@
         <v>2.19</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="H8" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="N8" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="M9" t="n">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="N9" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.35</v>
+        <v>2.14</v>
       </c>
       <c r="I10" t="n">
         <v>1.03</v>
@@ -1533,10 +1533,10 @@
         <v>3.18</v>
       </c>
       <c r="M10" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="G11" t="n">
         <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.79</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1643,10 +1643,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="N11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -1655,10 +1655,10 @@
         <v>3.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.31</v>
@@ -1685,13 +1685,13 @@
         <v>3.51</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>2</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="12">
@@ -1723,46 +1723,46 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>FA Šiauliai</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.63</v>
+        <v>4.7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.22</v>
+        <v>3.55</v>
       </c>
       <c r="H12" t="n">
-        <v>2.53</v>
+        <v>1.58</v>
       </c>
       <c r="I12" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="J12" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="K12" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>2.09</v>
+        <v>1.71</v>
       </c>
       <c r="N12" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="O12" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>2.55</v>
+        <v>2.84</v>
       </c>
       <c r="Q12" t="n">
         <v>1.8</v>
@@ -1771,28 +1771,28 @@
         <v>1.95</v>
       </c>
       <c r="S12" t="n">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="U12" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="V12" t="n">
         <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.83</v>
+        <v>3.48</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1833,46 +1833,46 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FA Šiauliai</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.92</v>
+        <v>2.52</v>
       </c>
       <c r="G13" t="n">
-        <v>3.86</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="I13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="J13" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="K13" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="N13" t="n">
-        <v>1.96</v>
+        <v>1.63</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
-        <v>2.84</v>
+        <v>2.55</v>
       </c>
       <c r="Q13" t="n">
         <v>1.8</v>
@@ -1881,28 +1881,28 @@
         <v>1.95</v>
       </c>
       <c r="S13" t="n">
-        <v>2.25</v>
+        <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="U13" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="V13" t="n">
         <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.48</v>
+        <v>3.83</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="N14" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
         <v>1.09</v>
@@ -2083,10 +2083,10 @@
         <v>2.8</v>
       </c>
       <c r="M15" t="n">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="N15" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="O15" t="n">
         <v>1.53</v>
@@ -2125,13 +2125,13 @@
         <v>4.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AB15" t="n">
         <v>7.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="AD15" t="n">
         <v>1.37</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2193,10 +2193,10 @@
         <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="N16" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="O16" t="n">
         <v>1.47</v>
@@ -2235,28 +2235,28 @@
         <v>3.12</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.75</v>
+        <v>4.04</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2303,10 +2303,10 @@
         <v>4.35</v>
       </c>
       <c r="M17" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="N17" t="n">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>2.26</v>
       </c>
       <c r="G18" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="H18" t="n">
-        <v>3.72</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
         <v>1.04</v>
@@ -2413,10 +2413,10 @@
         <v>3.6</v>
       </c>
       <c r="M18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N18" t="n">
         <v>1.85</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="I19" t="n">
         <v>1.05</v>
@@ -2523,10 +2523,10 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -2565,28 +2565,28 @@
         <v>3.38</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="G20" t="n">
-        <v>4.33</v>
+        <v>3.95</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="N20" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="O20" t="n">
         <v>1.43</v>
@@ -2696,7 +2696,7 @@
         <v>3.3</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.45</v>
+        <v>2.03</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2746,7 +2746,7 @@
         <v>1.8</v>
       </c>
       <c r="N21" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.38</v>
@@ -2785,66 +2785,66 @@
         <v>4.35</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF21" t="n">
         <v>2</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scotland Championship</t>
+          <t>England National League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>45020.65625</v>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Raith Rovers</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hamilton Academical</t>
+          <t>Yeovil Town</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I22" t="n">
         <v>1.05</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
         <v>1.28</v>
@@ -2853,10 +2853,10 @@
         <v>3.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="N22" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.39</v>
@@ -2865,168 +2865,168 @@
         <v>2.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="T22" t="n">
         <v>1.22</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="X22" t="n">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.54</v>
+        <v>2.96</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.25</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.95</v>
+        <v>3.48</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.8</v>
+        <v>2.49</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scotland League Two</t>
+          <t>Germany DFB Pokal</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
         <v>45020.65625</v>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stirling Albion</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="G23" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J23" t="n">
+        <v>26</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U23" t="n">
         <v>4</v>
       </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="V23" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AD23" t="n">
         <v>1.3</v>
       </c>
-      <c r="P23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="AE23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF23" t="n">
         <v>2.2</v>
       </c>
-      <c r="S23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AG23" t="n">
-        <v>3.35</v>
+        <v>2.25</v>
       </c>
       <c r="AH23" t="n">
-        <v>4.8</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="24">
@@ -3043,100 +3043,100 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.1</v>
+        <v>1.78</v>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J24" t="n">
+        <v>16</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="X24" t="n">
         <v>1.62</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="Y24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AB24" t="n">
         <v>9.4</v>
       </c>
-      <c r="K24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9.1</v>
-      </c>
       <c r="AC24" t="n">
-        <v>1.38</v>
+        <v>4.6</v>
       </c>
       <c r="AD24" t="n">
         <v>1.17</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AF24" t="n">
         <v>1.65</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AH24" t="n">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="25">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H25" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="I25" t="n">
         <v>1.05</v>
@@ -3183,10 +3183,10 @@
         <v>3.7</v>
       </c>
       <c r="M25" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="N25" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -3263,540 +3263,540 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.89</v>
+        <v>4.5</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="J26" t="n">
-        <v>16</v>
+        <v>9.4</v>
       </c>
       <c r="K26" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="L26" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="M26" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="N26" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
-        <v>1.22</v>
+        <v>1.93</v>
       </c>
       <c r="T26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X26" t="n">
         <v>1.24</v>
       </c>
-      <c r="U26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Y26" t="n">
-        <v>1.12</v>
+        <v>1.72</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.31</v>
+        <v>3.95</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>1.38</v>
       </c>
       <c r="AD26" t="n">
         <v>1.17</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AF26" t="n">
         <v>1.65</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>England National League</t>
+          <t>Scotland League Two</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
         <v>45020.65625</v>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Stirling Albion</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Yeovil Town</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="G27" t="n">
-        <v>3.85</v>
+        <v>4.25</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K27" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="N27" t="n">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S27" t="n">
         <v>1.22</v>
       </c>
       <c r="T27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>2.36</v>
       </c>
       <c r="W27" t="n">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="X27" t="n">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.96</v>
+        <v>2.65</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AF27" t="n">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.49</v>
+        <v>3.35</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Germany DFB Pokal</t>
+          <t>Scotland Championship</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
         <v>45020.65625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bayern München</t>
+          <t>Raith Rovers</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Hamilton Academical</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
         <v>1.29</v>
       </c>
-      <c r="G28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J28" t="n">
-        <v>26</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L28" t="n">
-        <v>7</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
-      <c r="V28" t="n">
-        <v>3</v>
-      </c>
-      <c r="W28" t="n">
-        <v>3</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF28" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AG28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH28" t="n">
         <v>2.25</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>2.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italy Coppa Italia</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inter Milan</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="I29" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="J29" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="K29" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="L29" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P29" t="n">
         <v>2.9</v>
       </c>
-      <c r="M29" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="S29" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="T29" t="n">
         <v>1.3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="W29" t="n">
-        <v>3</v>
+        <v>0.86</v>
       </c>
       <c r="X29" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.55</v>
+        <v>3.34</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="AB29" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AC29" t="n">
         <v>2.12</v>
       </c>
       <c r="AD29" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.7</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spain Copa del Rey</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="W30" t="n">
-        <v>2.67</v>
+        <v>0.55</v>
       </c>
       <c r="X30" t="n">
-        <v>2.97</v>
+        <v>1.52</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.57</v>
+        <v>1.18</v>
       </c>
       <c r="Z30" t="n">
-        <v>5.54</v>
+        <v>2.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3809,29 +3809,29 @@
         <v>45020.66666666666</v>
       </c>
       <c r="C31" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.3</v>
+        <v>6.85</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>1.33</v>
       </c>
       <c r="I31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J31" t="n">
         <v>19.5</v>
@@ -3840,183 +3840,183 @@
         <v>1.14</v>
       </c>
       <c r="L31" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="M31" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="N31" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R31" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="S31" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U31" t="n">
-        <v>3.15</v>
+        <v>1.06</v>
       </c>
       <c r="V31" t="n">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="W31" t="n">
-        <v>1.2</v>
+        <v>2.11</v>
       </c>
       <c r="X31" t="n">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Saudi Arabia Professional League</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Al Adalh</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="J32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AC32" t="n">
         <v>1.24</v>
       </c>
-      <c r="L32" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="AD32" t="n">
         <v>1.47</v>
       </c>
-      <c r="V32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AE32" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.66</v>
+        <v>2.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="AH32" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4029,29 +4029,29 @@
         <v>45020.66666666666</v>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="H33" t="n">
         <v>7</v>
       </c>
-      <c r="G33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.33</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J33" t="n">
         <v>19.5</v>
@@ -4060,293 +4060,293 @@
         <v>1.14</v>
       </c>
       <c r="L33" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="N33" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Y33" t="n">
         <v>1.25</v>
       </c>
-      <c r="P33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S33" t="n">
+      <c r="Z33" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH33" t="n">
         <v>3.1</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Spain Copa del Rey</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.74</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V34" t="n">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="W34" t="n">
-        <v>0.55</v>
+        <v>2.67</v>
       </c>
       <c r="X34" t="n">
-        <v>1.52</v>
+        <v>2.97</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.18</v>
+        <v>2.57</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.7</v>
+        <v>5.54</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Saudi Arabia Professional League</t>
+          <t>Italy Coppa Italia</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
         <v>45020.66666666666</v>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Al Adalh</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Inter Milan</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>2.69</v>
       </c>
       <c r="G35" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>1.2</v>
+        <v>2.57</v>
       </c>
       <c r="I35" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="J35" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="K35" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="L35" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="M35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.5</v>
       </c>
-      <c r="N35" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.25</v>
-      </c>
       <c r="P35" t="n">
-        <v>3.74</v>
+        <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S35" t="n">
-        <v>3.74</v>
+        <v>1.42</v>
       </c>
       <c r="T35" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="V35" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE35" t="n">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="36">
@@ -4359,104 +4359,104 @@
         <v>45020.67708333334</v>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="G36" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L36" t="n">
         <v>2.7</v>
       </c>
-      <c r="H36" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.32</v>
-      </c>
       <c r="M36" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="N36" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="O36" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="P36" t="n">
-        <v>2.21</v>
+        <v>2.43</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="R36" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="W36" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="X36" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.69</v>
+        <v>1.14</v>
       </c>
       <c r="Z36" t="n">
-        <v>3.29</v>
+        <v>2.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="37">
@@ -4482,10 +4482,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="G37" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="H37" t="n">
         <v>2.95</v>
@@ -4500,13 +4500,13 @@
         <v>1.53</v>
       </c>
       <c r="L37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M37" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="N37" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="O37" t="n">
         <v>1.61</v>
@@ -4579,104 +4579,104 @@
         <v>45020.67708333334</v>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H38" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I38" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="J38" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="K38" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="L38" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M38" t="n">
-        <v>2.35</v>
+        <v>2.59</v>
       </c>
       <c r="N38" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="O38" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="P38" t="n">
-        <v>2.43</v>
+        <v>2.21</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="R38" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
         <v>1.4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U38" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V38" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W38" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="X38" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.14</v>
+        <v>1.69</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.5</v>
+        <v>3.29</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="39">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.75</v>
+        <v>2.96</v>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -4723,10 +4723,10 @@
         <v>3.74</v>
       </c>
       <c r="M39" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="N39" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="O39" t="n">
         <v>1.33</v>
@@ -4735,19 +4735,19 @@
         <v>3.04</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R39" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S39" t="n">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="T39" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="U39" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="V39" t="n">
         <v>1.58</v>
@@ -4792,7 +4792,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -4803,106 +4803,106 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Atlético PR</t>
+          <t>Newell's Old Boys</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
         <v>1.95</v>
       </c>
       <c r="I40" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="J40" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="K40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="L40" t="n">
-        <v>3.02</v>
+        <v>2.7</v>
       </c>
       <c r="M40" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O40" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R40" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S40" t="n">
         <v>1.72</v>
       </c>
       <c r="T40" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U40" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AD40" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="AG40" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.46</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -4913,100 +4913,100 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.3</v>
+        <v>2.16</v>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="H41" t="n">
-        <v>2.2</v>
+        <v>3.35</v>
       </c>
       <c r="I41" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="K41" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="L41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>3</v>
       </c>
-      <c r="M41" t="n">
-        <v>2</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R41" t="n">
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA41" t="n">
         <v>1.91</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>2.2</v>
       </c>
       <c r="AB41" t="n">
         <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AD41" t="n">
         <v>1.21</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AG41" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AH41" t="n">
-        <v>2.91</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="42">
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
-        <v>4.34</v>
+        <v>4.1</v>
       </c>
       <c r="I42" t="n">
         <v>1.08</v>
@@ -5053,10 +5053,10 @@
         <v>2.55</v>
       </c>
       <c r="M42" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="N42" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="O42" t="n">
         <v>1.55</v>
@@ -5122,7 +5122,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>South America Copa Sudamericana</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -5133,106 +5133,106 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.07</v>
+        <v>3.15</v>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H43" t="n">
-        <v>3.82</v>
+        <v>2.13</v>
       </c>
       <c r="I43" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="J43" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="K43" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="L43" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="N43" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="O43" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="S43" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="T43" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U43" t="n">
-        <v>1.68</v>
+        <v>1.3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AB43" t="n">
         <v>8</v>
       </c>
       <c r="AC43" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AD43" t="n">
         <v>1.21</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="AH43" t="n">
-        <v>2.6</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>South America Copa Sudamericana</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -5243,195 +5243,195 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Newell's Old Boys</t>
+          <t>Atlético PR</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I44" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J44" t="n">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="K44" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="L44" t="n">
-        <v>2.7</v>
+        <v>3.02</v>
       </c>
       <c r="M44" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N44" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P44" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R44" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="n">
         <v>1.72</v>
       </c>
       <c r="T44" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AE44" t="n">
         <v>1.29</v>
       </c>
-      <c r="V44" t="n">
-        <v>3</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AF44" t="n">
-        <v>1.85</v>
+        <v>1.54</v>
       </c>
       <c r="AG44" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="AH44" t="n">
-        <v>3.28</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie A</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45020.79166666666</v>
+        <v>45020.83333333334</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mushuc Runa SC</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Nacional Potosí</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V45" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
-        <v>1.52</v>
+        <v>0.93</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -5452,87 +5452,87 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie A</t>
+          <t>Ecuador Primera Categoría Serie B</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45020.79166666666</v>
+        <v>45020.875</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CSD Independiente del Valle</t>
+          <t>9 de Octubre</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Delfin SC</t>
+          <t>América de Quito</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V46" t="n">
         <v>3</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X46" t="n">
-        <v>1.91</v>
+        <v>1.56</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.77</v>
+        <v>1.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>2.68</v>
+        <v>3.06</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -5562,1210 +5562,330 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie A</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45020.79166666666</v>
+        <v>45020.875</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Gualaceo SC</t>
+          <t>Estudiantes Mérida</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Técnico Universitario</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="V47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.81</v>
+        <v>1.45</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie A</t>
+          <t>South America Copa Sudamericana</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45020.79166666666</v>
+        <v>45020.875</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>César Vallejo</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cumbayá</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V48" t="n">
         <v>3</v>
       </c>
       <c r="W48" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X48" t="n">
-        <v>1.35</v>
+        <v>1.86</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.36</v>
+        <v>1.86</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie A</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45020.79166666666</v>
+        <v>45020.875</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CD El Nacional</t>
+          <t>Independiente Medellín</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CD Universidad Católica</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V49" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>3.24</v>
+        <v>1.47</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie A</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>45020.79166666666</v>
-      </c>
-      <c r="C50" t="n">
-        <v>5</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Guayaquil City FC</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>LDU Quito</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>2</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X50" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie A</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>45020.79166666666</v>
-      </c>
-      <c r="C51" t="n">
-        <v>5</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>SD Aucas</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>CS Emelec</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie A</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>45020.79166666666</v>
-      </c>
-      <c r="C52" t="n">
-        <v>5</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Orense SC</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Deportivo Cuenca</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>3</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Bolivia LFPB</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>45020.83333333334</v>
-      </c>
-      <c r="C53" t="n">
-        <v>7</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Wilstermann</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Nacional Potosí</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J53" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P53" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>South America Copa Sudamericana</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>45020.875</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>César Vallejo</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>LDU Quito</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V54" t="n">
-        <v>3</v>
-      </c>
-      <c r="W54" t="n">
-        <v>3</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie B</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>45020.875</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>9 de Octubre</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>América de Quito</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" t="n">
-        <v>3</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X55" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>South America Copa Sudamericana</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>45020.875</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Estudiantes Mérida</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>San Lorenzo</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>45020.875</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Independiente Medellín</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V57" t="n">
-        <v>2</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AH57" t="n">
         <v>3.2</v>
       </c>
     </row>
